--- a/script_master_data/DED-NAUF_Adopcion IA_v1a.xlsx
+++ b/script_master_data/DED-NAUF_Adopcion IA_v1a.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="2949" documentId="13_ncr:1_{CC2F7265-7341-4AB8-8837-BA192D3EEE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D373388D-3938-433D-96BB-AB543266F1DA}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11505" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdopcionIA" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -389,7 +387,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2477,7 +2475,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2567,7 +2565,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2675,7 +2673,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2751,7 +2749,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3176,7 +3174,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3323,7 +3321,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3470,7 +3468,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -3529,7 +3527,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -3571,7 +3569,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -3631,7 +3629,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3661,7 +3659,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3737,7 +3735,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4162,7 +4160,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4309,7 +4307,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4456,7 +4454,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -4515,7 +4513,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -4557,7 +4555,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -4617,7 +4615,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4647,7 +4645,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4723,7 +4721,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4907,7 +4905,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5047,7 +5045,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5077,7 +5075,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5153,7 +5151,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5424,7 +5422,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5574,7 +5572,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776388104"/>
@@ -5656,7 +5654,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5688,7 +5686,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776385544"/>
@@ -5753,7 +5751,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5785,7 +5783,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="114118151"/>
@@ -5845,7 +5843,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5875,7 +5873,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5951,7 +5949,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6376,7 +6374,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6523,7 +6521,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6670,7 +6668,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -6729,7 +6727,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -6771,7 +6769,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -6831,7 +6829,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6861,7 +6859,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6937,7 +6935,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7362,7 +7360,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7509,7 +7507,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7656,7 +7654,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171074056"/>
@@ -7715,7 +7713,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171072008"/>
@@ -7757,7 +7755,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2097866760"/>
@@ -7817,7 +7815,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7847,7 +7845,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7923,7 +7921,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8347,7 +8345,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8494,7 +8492,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171074056"/>
@@ -8553,7 +8551,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171072008"/>
@@ -8595,7 +8593,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2097866760"/>
@@ -8655,7 +8653,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8685,7 +8683,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8761,7 +8759,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9186,7 +9184,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9333,7 +9331,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9480,7 +9478,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -9539,7 +9537,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -9581,7 +9579,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -9641,7 +9639,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9671,7 +9669,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9747,7 +9745,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10172,7 +10170,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10319,7 +10317,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10466,7 +10464,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -10525,7 +10523,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -10567,7 +10565,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -10627,7 +10625,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10657,7 +10655,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10733,7 +10731,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11158,7 +11156,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11305,7 +11303,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11452,7 +11450,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -11511,7 +11509,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -11553,7 +11551,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -11613,7 +11611,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11643,7 +11641,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18384,39 +18382,39 @@
   <dimension ref="B2:AR164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AL6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="B6" sqref="B6:AP13"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="50.5703125" style="119" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="41" width="9.140625" style="1"/>
-    <col min="42" max="42" width="94.42578125" style="1" customWidth="1"/>
-    <col min="43" max="43" width="29.140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50.54296875" style="119" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="9.1796875" style="1" customWidth="1"/>
+    <col min="12" max="41" width="9.1796875" style="1"/>
+    <col min="42" max="42" width="94.453125" style="1" customWidth="1"/>
+    <col min="43" max="43" width="29.1796875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:44" ht="18.75">
+    <row r="2" spans="2:44" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:44" ht="15">
+    <row r="3" spans="2:44" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B3" s="90" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:44" s="2" customFormat="1" ht="15.75">
+    <row r="4" spans="2:44" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E4" s="120"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
@@ -18468,7 +18466,7 @@
       <c r="AN4" s="5"/>
       <c r="AO4" s="6"/>
     </row>
-    <row r="5" spans="2:44" ht="39" thickBot="1">
+    <row r="5" spans="2:44" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -18599,7 +18597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:44" ht="13.5">
+    <row r="6" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
@@ -18720,7 +18718,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="2:44" ht="15">
+    <row r="7" spans="2:44" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
@@ -18829,7 +18827,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="2:44">
+    <row r="8" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
@@ -18884,7 +18882,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="9" spans="2:44" ht="15.75" customHeight="1" thickBot="1">
+    <row r="9" spans="2:44" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
@@ -18985,7 +18983,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="10" spans="2:44" ht="13.5" thickBot="1">
+    <row r="10" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
@@ -19044,7 +19042,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="11" spans="2:44">
+    <row r="11" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
@@ -19151,7 +19149,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="12" spans="2:44" ht="25.5">
+    <row r="12" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
@@ -19260,7 +19258,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="13" spans="2:44" ht="25.5">
+    <row r="13" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>22</v>
       </c>
@@ -19375,7 +19373,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="14" spans="2:44">
+    <row r="14" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
@@ -19418,12 +19416,12 @@
       <c r="AO14" s="118"/>
       <c r="AP14" s="28"/>
       <c r="AQ14" s="30" t="str">
-        <f t="shared" ref="AQ12:AQ69" si="2">IF(OR(G14="S",L14="S",Q14="S",V14="S",AA14="S",AF14="S",AK14="S"),"S","N")</f>
+        <f t="shared" ref="AQ14:AQ69" si="2">IF(OR(G14="S",L14="S",Q14="S",V14="S",AA14="S",AF14="S",AK14="S"),"S","N")</f>
         <v>N</v>
       </c>
       <c r="AR14" s="30"/>
     </row>
-    <row r="15" spans="2:44">
+    <row r="15" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
@@ -19471,7 +19469,7 @@
       </c>
       <c r="AR15" s="30"/>
     </row>
-    <row r="16" spans="2:44">
+    <row r="16" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -19519,7 +19517,7 @@
       </c>
       <c r="AR16" s="30"/>
     </row>
-    <row r="17" spans="2:44" ht="12" customHeight="1">
+    <row r="17" spans="2:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
@@ -19567,7 +19565,7 @@
       </c>
       <c r="AR17" s="30"/>
     </row>
-    <row r="18" spans="2:44">
+    <row r="18" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
@@ -19615,7 +19613,7 @@
       </c>
       <c r="AR18" s="30"/>
     </row>
-    <row r="19" spans="2:44">
+    <row r="19" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -19663,7 +19661,7 @@
       </c>
       <c r="AR19" s="30"/>
     </row>
-    <row r="20" spans="2:44">
+    <row r="20" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
@@ -19711,7 +19709,7 @@
       </c>
       <c r="AR20" s="30"/>
     </row>
-    <row r="21" spans="2:44">
+    <row r="21" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
@@ -19759,7 +19757,7 @@
       </c>
       <c r="AR21" s="30"/>
     </row>
-    <row r="22" spans="2:44">
+    <row r="22" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
@@ -19807,7 +19805,7 @@
       </c>
       <c r="AR22" s="30"/>
     </row>
-    <row r="23" spans="2:44">
+    <row r="23" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
@@ -19855,7 +19853,7 @@
       </c>
       <c r="AR23" s="30"/>
     </row>
-    <row r="24" spans="2:44">
+    <row r="24" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
@@ -19903,7 +19901,7 @@
       </c>
       <c r="AR24" s="30"/>
     </row>
-    <row r="25" spans="2:44">
+    <row r="25" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
       <c r="C25" s="38"/>
       <c r="D25" s="39"/>
@@ -19951,7 +19949,7 @@
       </c>
       <c r="AR25" s="30"/>
     </row>
-    <row r="26" spans="2:44">
+    <row r="26" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B26" s="9"/>
       <c r="C26" s="26"/>
       <c r="D26" s="10"/>
@@ -19999,7 +19997,7 @@
       </c>
       <c r="AR26" s="30"/>
     </row>
-    <row r="27" spans="2:44">
+    <row r="27" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
       <c r="C27" s="26"/>
       <c r="D27" s="10"/>
@@ -20047,7 +20045,7 @@
       </c>
       <c r="AR27" s="30"/>
     </row>
-    <row r="28" spans="2:44">
+    <row r="28" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
       <c r="C28" s="26"/>
       <c r="D28" s="10"/>
@@ -20095,7 +20093,7 @@
       </c>
       <c r="AR28" s="30"/>
     </row>
-    <row r="29" spans="2:44">
+    <row r="29" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
       <c r="C29" s="26"/>
       <c r="D29" s="10"/>
@@ -20143,7 +20141,7 @@
       </c>
       <c r="AR29" s="30"/>
     </row>
-    <row r="30" spans="2:44">
+    <row r="30" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B30" s="9"/>
       <c r="C30" s="26"/>
       <c r="D30" s="10"/>
@@ -20191,7 +20189,7 @@
       </c>
       <c r="AR30" s="30"/>
     </row>
-    <row r="31" spans="2:44">
+    <row r="31" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
       <c r="C31" s="26"/>
       <c r="D31" s="10"/>
@@ -20239,7 +20237,7 @@
       </c>
       <c r="AR31" s="30"/>
     </row>
-    <row r="32" spans="2:44">
+    <row r="32" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
       <c r="C32" s="26"/>
       <c r="D32" s="10"/>
@@ -20287,7 +20285,7 @@
       </c>
       <c r="AR32" s="30"/>
     </row>
-    <row r="33" spans="2:44">
+    <row r="33" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
       <c r="C33" s="26"/>
       <c r="D33" s="10"/>
@@ -20335,7 +20333,7 @@
       </c>
       <c r="AR33" s="30"/>
     </row>
-    <row r="34" spans="2:44">
+    <row r="34" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
       <c r="C34" s="26"/>
       <c r="D34" s="10"/>
@@ -20383,7 +20381,7 @@
       </c>
       <c r="AR34" s="30"/>
     </row>
-    <row r="35" spans="2:44">
+    <row r="35" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B35" s="9"/>
       <c r="C35" s="26"/>
       <c r="D35" s="10"/>
@@ -20431,7 +20429,7 @@
       </c>
       <c r="AR35" s="30"/>
     </row>
-    <row r="36" spans="2:44">
+    <row r="36" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B36" s="9"/>
       <c r="C36" s="26"/>
       <c r="D36" s="10"/>
@@ -20479,7 +20477,7 @@
       </c>
       <c r="AR36" s="30"/>
     </row>
-    <row r="37" spans="2:44">
+    <row r="37" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
       <c r="C37" s="26"/>
       <c r="D37" s="41"/>
@@ -20527,7 +20525,7 @@
       </c>
       <c r="AR37" s="30"/>
     </row>
-    <row r="38" spans="2:44">
+    <row r="38" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B38" s="26"/>
       <c r="C38" s="40"/>
       <c r="D38" s="41"/>
@@ -20575,7 +20573,7 @@
       </c>
       <c r="AR38" s="30"/>
     </row>
-    <row r="39" spans="2:44">
+    <row r="39" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B39" s="26"/>
       <c r="C39" s="40"/>
       <c r="D39" s="10"/>
@@ -20623,7 +20621,7 @@
       </c>
       <c r="AR39" s="30"/>
     </row>
-    <row r="40" spans="2:44">
+    <row r="40" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B40" s="26"/>
       <c r="C40" s="40"/>
       <c r="D40" s="10"/>
@@ -20671,7 +20669,7 @@
       </c>
       <c r="AR40" s="30"/>
     </row>
-    <row r="41" spans="2:44">
+    <row r="41" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B41" s="26"/>
       <c r="C41" s="40"/>
       <c r="D41" s="10"/>
@@ -20719,7 +20717,7 @@
       </c>
       <c r="AR41" s="30"/>
     </row>
-    <row r="42" spans="2:44">
+    <row r="42" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B42" s="26"/>
       <c r="C42" s="40"/>
       <c r="D42" s="10"/>
@@ -20767,7 +20765,7 @@
       </c>
       <c r="AR42" s="30"/>
     </row>
-    <row r="43" spans="2:44">
+    <row r="43" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B43" s="26"/>
       <c r="C43" s="40"/>
       <c r="D43" s="10"/>
@@ -20815,7 +20813,7 @@
       </c>
       <c r="AR43" s="30"/>
     </row>
-    <row r="44" spans="2:44">
+    <row r="44" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="C44" s="40"/>
       <c r="D44" s="10"/>
@@ -20863,7 +20861,7 @@
       </c>
       <c r="AR44" s="30"/>
     </row>
-    <row r="45" spans="2:44">
+    <row r="45" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B45" s="26"/>
       <c r="C45" s="40"/>
       <c r="D45" s="10"/>
@@ -20911,7 +20909,7 @@
       </c>
       <c r="AR45" s="30"/>
     </row>
-    <row r="46" spans="2:44">
+    <row r="46" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B46" s="26"/>
       <c r="C46" s="40"/>
       <c r="D46" s="10"/>
@@ -20959,7 +20957,7 @@
       </c>
       <c r="AR46" s="30"/>
     </row>
-    <row r="47" spans="2:44">
+    <row r="47" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B47" s="26"/>
       <c r="C47" s="40"/>
       <c r="D47" s="10"/>
@@ -21007,7 +21005,7 @@
       </c>
       <c r="AR47" s="30"/>
     </row>
-    <row r="48" spans="2:44">
+    <row r="48" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B48" s="26"/>
       <c r="C48" s="40"/>
       <c r="D48" s="10"/>
@@ -21055,7 +21053,7 @@
       </c>
       <c r="AR48" s="30"/>
     </row>
-    <row r="49" spans="2:44">
+    <row r="49" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B49" s="26"/>
       <c r="C49" s="40"/>
       <c r="D49" s="10"/>
@@ -21103,7 +21101,7 @@
       </c>
       <c r="AR49" s="30"/>
     </row>
-    <row r="50" spans="2:44">
+    <row r="50" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B50" s="26"/>
       <c r="C50" s="40"/>
       <c r="D50" s="10"/>
@@ -21151,7 +21149,7 @@
       </c>
       <c r="AR50" s="30"/>
     </row>
-    <row r="51" spans="2:44">
+    <row r="51" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B51" s="26"/>
       <c r="C51" s="40"/>
       <c r="D51" s="10"/>
@@ -21199,7 +21197,7 @@
       </c>
       <c r="AR51" s="30"/>
     </row>
-    <row r="52" spans="2:44">
+    <row r="52" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B52" s="26"/>
       <c r="C52" s="40"/>
       <c r="D52" s="10"/>
@@ -21247,7 +21245,7 @@
       </c>
       <c r="AR52" s="30"/>
     </row>
-    <row r="53" spans="2:44" ht="29.25" customHeight="1">
+    <row r="53" spans="2:44" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="26"/>
       <c r="C53" s="40"/>
       <c r="D53" s="10"/>
@@ -21295,7 +21293,7 @@
       </c>
       <c r="AR53" s="30"/>
     </row>
-    <row r="54" spans="2:44">
+    <row r="54" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B54" s="26"/>
       <c r="C54" s="40"/>
       <c r="D54" s="10"/>
@@ -21343,7 +21341,7 @@
       </c>
       <c r="AR54" s="30"/>
     </row>
-    <row r="55" spans="2:44">
+    <row r="55" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B55" s="26"/>
       <c r="C55" s="40"/>
       <c r="D55" s="10"/>
@@ -21391,7 +21389,7 @@
       </c>
       <c r="AR55" s="30"/>
     </row>
-    <row r="56" spans="2:44" ht="27.75" customHeight="1">
+    <row r="56" spans="2:44" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="26"/>
       <c r="C56" s="40"/>
       <c r="D56" s="10"/>
@@ -21439,7 +21437,7 @@
       </c>
       <c r="AR56" s="30"/>
     </row>
-    <row r="57" spans="2:44">
+    <row r="57" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B57" s="26"/>
       <c r="C57" s="40"/>
       <c r="D57" s="10"/>
@@ -21487,7 +21485,7 @@
       </c>
       <c r="AR57" s="30"/>
     </row>
-    <row r="58" spans="2:44">
+    <row r="58" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B58" s="26"/>
       <c r="C58" s="40"/>
       <c r="D58" s="10"/>
@@ -21535,7 +21533,7 @@
       </c>
       <c r="AR58" s="30"/>
     </row>
-    <row r="59" spans="2:44">
+    <row r="59" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B59" s="26"/>
       <c r="C59" s="40"/>
       <c r="D59" s="10"/>
@@ -21583,7 +21581,7 @@
       </c>
       <c r="AR59" s="30"/>
     </row>
-    <row r="60" spans="2:44">
+    <row r="60" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B60" s="26"/>
       <c r="C60" s="40"/>
       <c r="D60" s="10"/>
@@ -21631,7 +21629,7 @@
       </c>
       <c r="AR60" s="30"/>
     </row>
-    <row r="61" spans="2:44">
+    <row r="61" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B61" s="26"/>
       <c r="C61" s="40"/>
       <c r="D61" s="10"/>
@@ -21679,7 +21677,7 @@
       </c>
       <c r="AR61" s="30"/>
     </row>
-    <row r="62" spans="2:44">
+    <row r="62" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B62" s="26"/>
       <c r="C62" s="40"/>
       <c r="D62" s="10"/>
@@ -21727,7 +21725,7 @@
       </c>
       <c r="AR62" s="30"/>
     </row>
-    <row r="63" spans="2:44">
+    <row r="63" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B63" s="26"/>
       <c r="C63" s="40"/>
       <c r="D63" s="10"/>
@@ -21775,7 +21773,7 @@
       </c>
       <c r="AR63" s="30"/>
     </row>
-    <row r="64" spans="2:44">
+    <row r="64" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B64" s="26"/>
       <c r="C64" s="40"/>
       <c r="D64" s="10"/>
@@ -21823,7 +21821,7 @@
       </c>
       <c r="AR64" s="30"/>
     </row>
-    <row r="65" spans="2:44">
+    <row r="65" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B65" s="26"/>
       <c r="C65" s="40"/>
       <c r="D65" s="10"/>
@@ -21871,7 +21869,7 @@
       </c>
       <c r="AR65" s="30"/>
     </row>
-    <row r="66" spans="2:44">
+    <row r="66" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B66" s="26"/>
       <c r="C66" s="40"/>
       <c r="D66" s="10"/>
@@ -21919,7 +21917,7 @@
       </c>
       <c r="AR66" s="30"/>
     </row>
-    <row r="67" spans="2:44">
+    <row r="67" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B67" s="26"/>
       <c r="C67" s="40"/>
       <c r="D67" s="10"/>
@@ -21967,7 +21965,7 @@
       </c>
       <c r="AR67" s="30"/>
     </row>
-    <row r="68" spans="2:44">
+    <row r="68" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B68" s="26"/>
       <c r="C68" s="40"/>
       <c r="D68" s="10"/>
@@ -22015,7 +22013,7 @@
       </c>
       <c r="AR68" s="30"/>
     </row>
-    <row r="69" spans="2:44">
+    <row r="69" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B69" s="26"/>
       <c r="C69" s="40"/>
       <c r="D69" s="10"/>
@@ -22063,7 +22061,7 @@
       </c>
       <c r="AR69" s="30"/>
     </row>
-    <row r="70" spans="2:44">
+    <row r="70" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B70" s="26"/>
       <c r="C70" s="40"/>
       <c r="D70" s="10"/>
@@ -22111,7 +22109,7 @@
       </c>
       <c r="AR70" s="30"/>
     </row>
-    <row r="71" spans="2:44">
+    <row r="71" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B71" s="26"/>
       <c r="C71" s="40"/>
       <c r="D71" s="10"/>
@@ -22159,7 +22157,7 @@
       </c>
       <c r="AR71" s="30"/>
     </row>
-    <row r="72" spans="2:44">
+    <row r="72" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B72" s="26"/>
       <c r="C72" s="40"/>
       <c r="D72" s="10"/>
@@ -22207,7 +22205,7 @@
       </c>
       <c r="AR72" s="30"/>
     </row>
-    <row r="73" spans="2:44">
+    <row r="73" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B73" s="26"/>
       <c r="C73" s="40"/>
       <c r="D73" s="10"/>
@@ -22255,7 +22253,7 @@
       </c>
       <c r="AR73" s="30"/>
     </row>
-    <row r="74" spans="2:44">
+    <row r="74" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="10"/>
@@ -22303,7 +22301,7 @@
       </c>
       <c r="AR74" s="30"/>
     </row>
-    <row r="75" spans="2:44">
+    <row r="75" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="10"/>
@@ -22351,7 +22349,7 @@
       </c>
       <c r="AR75" s="30"/>
     </row>
-    <row r="76" spans="2:44">
+    <row r="76" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="10"/>
@@ -22399,7 +22397,7 @@
       </c>
       <c r="AR76" s="30"/>
     </row>
-    <row r="77" spans="2:44">
+    <row r="77" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="10"/>
@@ -22447,7 +22445,7 @@
       </c>
       <c r="AR77" s="30"/>
     </row>
-    <row r="78" spans="2:44">
+    <row r="78" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="10"/>
@@ -22495,7 +22493,7 @@
       </c>
       <c r="AR78" s="30"/>
     </row>
-    <row r="79" spans="2:44">
+    <row r="79" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="10"/>
@@ -22543,7 +22541,7 @@
       </c>
       <c r="AR79" s="30"/>
     </row>
-    <row r="80" spans="2:44">
+    <row r="80" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="10"/>
@@ -22591,7 +22589,7 @@
       </c>
       <c r="AR80" s="30"/>
     </row>
-    <row r="81" spans="2:44">
+    <row r="81" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="10"/>
@@ -22639,7 +22637,7 @@
       </c>
       <c r="AR81" s="30"/>
     </row>
-    <row r="82" spans="2:44">
+    <row r="82" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="10"/>
@@ -22687,7 +22685,7 @@
       </c>
       <c r="AR82" s="30"/>
     </row>
-    <row r="83" spans="2:44">
+    <row r="83" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="10"/>
@@ -22735,7 +22733,7 @@
       </c>
       <c r="AR83" s="30"/>
     </row>
-    <row r="84" spans="2:44">
+    <row r="84" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="10"/>
@@ -22783,7 +22781,7 @@
       </c>
       <c r="AR84" s="30"/>
     </row>
-    <row r="85" spans="2:44">
+    <row r="85" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="10"/>
@@ -22831,7 +22829,7 @@
       </c>
       <c r="AR85" s="30"/>
     </row>
-    <row r="86" spans="2:44">
+    <row r="86" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="10"/>
@@ -22879,7 +22877,7 @@
       </c>
       <c r="AR86" s="30"/>
     </row>
-    <row r="87" spans="2:44" ht="28.5" customHeight="1">
+    <row r="87" spans="2:44" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="10"/>
@@ -22927,7 +22925,7 @@
       </c>
       <c r="AR87" s="30"/>
     </row>
-    <row r="88" spans="2:44">
+    <row r="88" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="10"/>
@@ -22975,7 +22973,7 @@
       </c>
       <c r="AR88" s="30"/>
     </row>
-    <row r="89" spans="2:44">
+    <row r="89" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="10"/>
@@ -23023,7 +23021,7 @@
       </c>
       <c r="AR89" s="30"/>
     </row>
-    <row r="90" spans="2:44">
+    <row r="90" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="10"/>
@@ -23071,7 +23069,7 @@
       </c>
       <c r="AR90" s="30"/>
     </row>
-    <row r="91" spans="2:44">
+    <row r="91" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="10"/>
@@ -23119,7 +23117,7 @@
       </c>
       <c r="AR91" s="30"/>
     </row>
-    <row r="92" spans="2:44">
+    <row r="92" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="10"/>
@@ -23167,7 +23165,7 @@
       </c>
       <c r="AR92" s="30"/>
     </row>
-    <row r="93" spans="2:44">
+    <row r="93" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="10"/>
@@ -23215,7 +23213,7 @@
       </c>
       <c r="AR93" s="30"/>
     </row>
-    <row r="94" spans="2:44">
+    <row r="94" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="10"/>
@@ -23263,7 +23261,7 @@
       </c>
       <c r="AR94" s="30"/>
     </row>
-    <row r="95" spans="2:44">
+    <row r="95" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="10"/>
@@ -23311,7 +23309,7 @@
       </c>
       <c r="AR95" s="30"/>
     </row>
-    <row r="96" spans="2:44">
+    <row r="96" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="10"/>
@@ -23359,7 +23357,7 @@
       </c>
       <c r="AR96" s="30"/>
     </row>
-    <row r="97" spans="2:44">
+    <row r="97" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="10"/>
@@ -23407,7 +23405,7 @@
       </c>
       <c r="AR97" s="30"/>
     </row>
-    <row r="98" spans="2:44" ht="26.25" customHeight="1">
+    <row r="98" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="10"/>
@@ -23455,7 +23453,7 @@
       </c>
       <c r="AR98" s="30"/>
     </row>
-    <row r="99" spans="2:44" ht="26.25" customHeight="1">
+    <row r="99" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="10"/>
@@ -23503,7 +23501,7 @@
       </c>
       <c r="AR99" s="30"/>
     </row>
-    <row r="100" spans="2:44" ht="26.25" customHeight="1">
+    <row r="100" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="10"/>
@@ -23551,7 +23549,7 @@
       </c>
       <c r="AR100" s="30"/>
     </row>
-    <row r="101" spans="2:44" ht="26.25" customHeight="1">
+    <row r="101" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="10"/>
@@ -23599,7 +23597,7 @@
       </c>
       <c r="AR101" s="30"/>
     </row>
-    <row r="102" spans="2:44" ht="26.25" customHeight="1">
+    <row r="102" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="10"/>
@@ -23647,7 +23645,7 @@
       </c>
       <c r="AR102" s="30"/>
     </row>
-    <row r="103" spans="2:44" ht="26.25" customHeight="1">
+    <row r="103" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="10"/>
@@ -23695,7 +23693,7 @@
       </c>
       <c r="AR103" s="30"/>
     </row>
-    <row r="104" spans="2:44" ht="26.25" customHeight="1">
+    <row r="104" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="10"/>
@@ -23743,7 +23741,7 @@
       </c>
       <c r="AR104" s="30"/>
     </row>
-    <row r="105" spans="2:44" ht="26.25" customHeight="1">
+    <row r="105" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="10"/>
@@ -23791,7 +23789,7 @@
       </c>
       <c r="AR105" s="30"/>
     </row>
-    <row r="106" spans="2:44" ht="26.25" customHeight="1">
+    <row r="106" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="10"/>
@@ -23839,7 +23837,7 @@
       </c>
       <c r="AR106" s="30"/>
     </row>
-    <row r="107" spans="2:44" ht="26.25" customHeight="1">
+    <row r="107" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="10"/>
@@ -23887,7 +23885,7 @@
       </c>
       <c r="AR107" s="30"/>
     </row>
-    <row r="108" spans="2:44" ht="26.25" customHeight="1">
+    <row r="108" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="10"/>
@@ -23935,7 +23933,7 @@
       </c>
       <c r="AR108" s="30"/>
     </row>
-    <row r="109" spans="2:44" ht="26.25" customHeight="1">
+    <row r="109" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="10"/>
@@ -23983,7 +23981,7 @@
       </c>
       <c r="AR109" s="30"/>
     </row>
-    <row r="110" spans="2:44" ht="26.25" customHeight="1">
+    <row r="110" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="10"/>
@@ -24031,7 +24029,7 @@
       </c>
       <c r="AR110" s="30"/>
     </row>
-    <row r="111" spans="2:44" ht="26.25" customHeight="1">
+    <row r="111" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="10"/>
@@ -24079,7 +24077,7 @@
       </c>
       <c r="AR111" s="30"/>
     </row>
-    <row r="112" spans="2:44" ht="26.25" customHeight="1">
+    <row r="112" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="10"/>
@@ -24127,7 +24125,7 @@
       </c>
       <c r="AR112" s="30"/>
     </row>
-    <row r="113" spans="2:44" ht="26.25" customHeight="1">
+    <row r="113" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="10"/>
@@ -24175,7 +24173,7 @@
       </c>
       <c r="AR113" s="30"/>
     </row>
-    <row r="114" spans="2:44" ht="26.25" customHeight="1">
+    <row r="114" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="10"/>
@@ -24223,7 +24221,7 @@
       </c>
       <c r="AR114" s="30"/>
     </row>
-    <row r="115" spans="2:44" ht="26.25" customHeight="1">
+    <row r="115" spans="2:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="10"/>
@@ -24271,7 +24269,7 @@
       </c>
       <c r="AR115" s="30"/>
     </row>
-    <row r="116" spans="2:44" ht="25.5" customHeight="1">
+    <row r="116" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="10"/>
@@ -24319,7 +24317,7 @@
       </c>
       <c r="AR116" s="30"/>
     </row>
-    <row r="117" spans="2:44" ht="25.5" customHeight="1">
+    <row r="117" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="10"/>
@@ -24367,7 +24365,7 @@
       </c>
       <c r="AR117" s="30"/>
     </row>
-    <row r="118" spans="2:44" ht="25.5" customHeight="1">
+    <row r="118" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="10"/>
@@ -24415,7 +24413,7 @@
       </c>
       <c r="AR118" s="30"/>
     </row>
-    <row r="119" spans="2:44" ht="25.5" customHeight="1">
+    <row r="119" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="10"/>
@@ -24463,7 +24461,7 @@
       </c>
       <c r="AR119" s="30"/>
     </row>
-    <row r="120" spans="2:44" ht="25.5" customHeight="1">
+    <row r="120" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="10"/>
@@ -24511,7 +24509,7 @@
       </c>
       <c r="AR120" s="30"/>
     </row>
-    <row r="121" spans="2:44" ht="25.5" customHeight="1">
+    <row r="121" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="10"/>
@@ -24559,7 +24557,7 @@
       </c>
       <c r="AR121" s="30"/>
     </row>
-    <row r="122" spans="2:44" ht="25.5" customHeight="1">
+    <row r="122" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="10"/>
@@ -24607,7 +24605,7 @@
       </c>
       <c r="AR122" s="30"/>
     </row>
-    <row r="123" spans="2:44" ht="25.5" customHeight="1">
+    <row r="123" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="10"/>
@@ -24655,7 +24653,7 @@
       </c>
       <c r="AR123" s="30"/>
     </row>
-    <row r="124" spans="2:44">
+    <row r="124" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="10"/>
@@ -24703,7 +24701,7 @@
       </c>
       <c r="AR124" s="30"/>
     </row>
-    <row r="125" spans="2:44" ht="25.5" customHeight="1">
+    <row r="125" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="10"/>
@@ -24751,7 +24749,7 @@
       </c>
       <c r="AR125" s="30"/>
     </row>
-    <row r="126" spans="2:44" ht="25.5" customHeight="1">
+    <row r="126" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="10"/>
@@ -24799,7 +24797,7 @@
       </c>
       <c r="AR126" s="30"/>
     </row>
-    <row r="127" spans="2:44" ht="25.5" customHeight="1">
+    <row r="127" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="10"/>
@@ -24847,7 +24845,7 @@
       </c>
       <c r="AR127" s="30"/>
     </row>
-    <row r="128" spans="2:44" ht="25.5" customHeight="1">
+    <row r="128" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="10"/>
@@ -24895,7 +24893,7 @@
       </c>
       <c r="AR128" s="30"/>
     </row>
-    <row r="129" spans="2:44" ht="25.5" customHeight="1">
+    <row r="129" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="10"/>
@@ -24943,7 +24941,7 @@
       </c>
       <c r="AR129" s="30"/>
     </row>
-    <row r="130" spans="2:44">
+    <row r="130" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="10"/>
@@ -24991,7 +24989,7 @@
       </c>
       <c r="AR130" s="30"/>
     </row>
-    <row r="131" spans="2:44" ht="25.5" customHeight="1">
+    <row r="131" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="10"/>
@@ -25039,7 +25037,7 @@
       </c>
       <c r="AR131" s="30"/>
     </row>
-    <row r="132" spans="2:44" ht="25.5" customHeight="1">
+    <row r="132" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="10"/>
@@ -25087,7 +25085,7 @@
       </c>
       <c r="AR132" s="30"/>
     </row>
-    <row r="133" spans="2:44" ht="25.5" customHeight="1">
+    <row r="133" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="10"/>
@@ -25135,7 +25133,7 @@
       </c>
       <c r="AR133" s="30"/>
     </row>
-    <row r="134" spans="2:44" ht="12.75" customHeight="1">
+    <row r="134" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="10"/>
@@ -25188,7 +25186,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="135" spans="2:44" ht="12.75" customHeight="1">
+    <row r="135" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="10"/>
@@ -25241,7 +25239,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="136" spans="2:44" ht="12.75" customHeight="1">
+    <row r="136" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="10"/>
@@ -25294,7 +25292,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="137" spans="2:44" ht="12.75" customHeight="1">
+    <row r="137" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="10"/>
@@ -25347,7 +25345,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="138" spans="2:44" ht="12.75" customHeight="1">
+    <row r="138" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="10"/>
@@ -25400,7 +25398,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="139" spans="2:44" ht="12.75" customHeight="1">
+    <row r="139" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="10"/>
@@ -25453,7 +25451,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="140" spans="2:44" ht="12.75" customHeight="1">
+    <row r="140" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="10"/>
@@ -25506,7 +25504,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="141" spans="2:44" ht="12.75" customHeight="1">
+    <row r="141" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="10"/>
@@ -25559,7 +25557,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="142" spans="2:44" ht="12.75" customHeight="1">
+    <row r="142" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="10"/>
@@ -25612,7 +25610,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="143" spans="2:44" ht="12.75" customHeight="1">
+    <row r="143" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="10"/>
@@ -25665,7 +25663,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="144" spans="2:44" ht="12.75" customHeight="1">
+    <row r="144" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="10"/>
@@ -25718,7 +25716,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="145" spans="2:44" ht="12.75" customHeight="1">
+    <row r="145" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="10"/>
@@ -25771,7 +25769,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="146" spans="2:44" ht="12.75" customHeight="1">
+    <row r="146" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="10"/>
@@ -25824,7 +25822,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="147" spans="2:44" ht="12.75" customHeight="1">
+    <row r="147" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="10"/>
@@ -25877,7 +25875,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="148" spans="2:44" ht="12.75" customHeight="1">
+    <row r="148" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
       <c r="D148" s="10"/>
@@ -25930,7 +25928,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="149" spans="2:44" ht="12.75" customHeight="1">
+    <row r="149" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="10"/>
@@ -25983,7 +25981,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="150" spans="2:44" ht="12.75" customHeight="1">
+    <row r="150" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="10"/>
@@ -26036,7 +26034,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="151" spans="2:44" ht="12.75" customHeight="1">
+    <row r="151" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="10"/>
@@ -26089,7 +26087,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="152" spans="2:44" ht="12.75" customHeight="1">
+    <row r="152" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="10"/>
@@ -26142,7 +26140,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="153" spans="2:44" ht="12.75" customHeight="1">
+    <row r="153" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="10"/>
@@ -26195,7 +26193,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="154" spans="2:44" ht="12.75" customHeight="1">
+    <row r="154" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="10"/>
@@ -26248,7 +26246,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="155" spans="2:44" ht="12.75" customHeight="1">
+    <row r="155" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="10"/>
@@ -26301,7 +26299,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="156" spans="2:44" ht="12.75" customHeight="1">
+    <row r="156" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="10"/>
@@ -26354,7 +26352,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="157" spans="2:44" ht="12.75" customHeight="1">
+    <row r="157" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
       <c r="D157" s="10"/>
@@ -26407,7 +26405,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="158" spans="2:44" ht="12.75" customHeight="1">
+    <row r="158" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="10"/>
@@ -26460,7 +26458,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="159" spans="2:44" ht="12.75" customHeight="1">
+    <row r="159" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="10"/>
@@ -26513,7 +26511,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="160" spans="2:44" ht="12.75" customHeight="1">
+    <row r="160" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="10"/>
@@ -26566,7 +26564,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="161" spans="2:44" ht="12.75" customHeight="1">
+    <row r="161" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
       <c r="D161" s="10"/>
@@ -26619,7 +26617,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="162" spans="2:44" ht="12.75" customHeight="1">
+    <row r="162" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
       <c r="D162" s="10"/>
@@ -26672,7 +26670,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="163" spans="2:44" ht="12.75" customHeight="1">
+    <row r="163" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="10"/>
@@ -26725,7 +26723,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="164" spans="2:44" ht="12.75" customHeight="1">
+    <row r="164" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="10"/>
@@ -27242,77 +27240,77 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="104" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="104" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="19">
         <v>10</v>
       </c>
@@ -27330,25 +27328,25 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="12" width="37.28515625" customWidth="1"/>
+    <col min="3" max="12" width="37.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E3" s="128" t="s">
         <v>54</v>
       </c>
       <c r="F3" s="128"/>
       <c r="G3" s="128"/>
     </row>
-    <row r="5" spans="3:12" ht="18.75">
+    <row r="5" spans="3:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="J5" s="129" t="s">
         <v>55</v>
       </c>
       <c r="K5" s="130"/>
     </row>
-    <row r="6" spans="3:12" ht="18.75">
+    <row r="6" spans="3:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C6" s="34" t="s">
         <v>56</v>
       </c>
@@ -27380,7 +27378,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="3:12">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C7" s="131" t="s">
         <v>66</v>
       </c>
@@ -27394,7 +27392,7 @@
       <c r="K7" s="87"/>
       <c r="L7" s="88"/>
     </row>
-    <row r="8" spans="3:12">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C8" s="132"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
@@ -27406,7 +27404,7 @@
       <c r="K8" s="87"/>
       <c r="L8" s="37"/>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C9" s="132"/>
       <c r="D9" s="87"/>
       <c r="E9" s="87"/>
@@ -27418,7 +27416,7 @@
       <c r="K9" s="87"/>
       <c r="L9" s="89"/>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C10" s="132"/>
       <c r="D10" s="87"/>
       <c r="E10" s="87"/>
@@ -27430,7 +27428,7 @@
       <c r="K10" s="87"/>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="3:12">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C11" s="132"/>
       <c r="D11" s="87"/>
       <c r="E11" s="87"/>
@@ -27442,7 +27440,7 @@
       <c r="K11" s="87"/>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="3:12">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C12" s="132"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -27454,7 +27452,7 @@
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="3:12">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C13" s="132"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -27466,7 +27464,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="3:12">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C14" s="132"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -27478,7 +27476,7 @@
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="3:12">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C15" s="132"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -27490,7 +27488,7 @@
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
     </row>
-    <row r="16" spans="3:12">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C16" s="132"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -27502,7 +27500,7 @@
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C17" s="132"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -27514,7 +27512,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C18" s="132"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -27526,7 +27524,7 @@
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="132"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -27556,81 +27554,81 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.5703125" customWidth="1"/>
-    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" customWidth="1"/>
-    <col min="34" max="34" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.85546875" customWidth="1"/>
-    <col min="39" max="39" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.7109375" customWidth="1"/>
-    <col min="42" max="42" width="19.42578125" customWidth="1"/>
-    <col min="43" max="43" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.5703125" customWidth="1"/>
-    <col min="47" max="47" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.7109375" customWidth="1"/>
-    <col min="50" max="50" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.28515625" customWidth="1"/>
-    <col min="55" max="55" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="13.7109375" customWidth="1"/>
-    <col min="58" max="58" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.140625" customWidth="1"/>
-    <col min="63" max="63" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.7109375" customWidth="1"/>
-    <col min="66" max="66" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="10" width="13.81640625" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" customWidth="1"/>
+    <col min="15" max="15" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7265625" customWidth="1"/>
+    <col min="18" max="18" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.26953125" customWidth="1"/>
+    <col min="23" max="23" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7265625" customWidth="1"/>
+    <col min="26" max="26" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.54296875" customWidth="1"/>
+    <col min="31" max="31" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.7265625" customWidth="1"/>
+    <col min="34" max="34" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.81640625" customWidth="1"/>
+    <col min="39" max="39" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.7265625" customWidth="1"/>
+    <col min="42" max="42" width="19.453125" customWidth="1"/>
+    <col min="43" max="43" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.54296875" customWidth="1"/>
+    <col min="47" max="47" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.7265625" customWidth="1"/>
+    <col min="50" max="50" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.26953125" customWidth="1"/>
+    <col min="55" max="55" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.7265625" customWidth="1"/>
+    <col min="58" max="58" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.1796875" customWidth="1"/>
+    <col min="63" max="63" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.7265625" customWidth="1"/>
+    <col min="66" max="66" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.25">
+    <row r="2" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C4" s="22" t="s">
         <v>68</v>
       </c>
@@ -27639,10 +27637,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C7" s="17"/>
       <c r="D7" s="20" t="s">
         <v>20</v>
@@ -27658,7 +27656,7 @@
       </c>
       <c r="H7" s="31"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C8" s="100" t="s">
         <v>72</v>
       </c>
@@ -27679,17 +27677,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="18.75">
+    <row r="10" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C10" s="72" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C11" s="24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C12" s="20" t="s">
         <v>75</v>
       </c>
@@ -27711,7 +27709,7 @@
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C13" s="18" t="s">
         <v>2</v>
       </c>
@@ -27736,7 +27734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C14" s="18" t="s">
         <v>3</v>
       </c>
@@ -27761,7 +27759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C15" s="18" t="s">
         <v>4</v>
       </c>
@@ -27786,7 +27784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C16" s="18" t="s">
         <v>79</v>
       </c>
@@ -27811,7 +27809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="3:10">
+    <row r="17" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C17" s="18" t="s">
         <v>80</v>
       </c>
@@ -27836,7 +27834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="3:10">
+    <row r="18" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C18" s="18" t="s">
         <v>81</v>
       </c>
@@ -27861,7 +27859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="3:10">
+    <row r="19" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C19" s="32" t="s">
         <v>82</v>
       </c>
@@ -27886,7 +27884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="3:10">
+    <row r="20" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C20" s="82" t="s">
         <v>83</v>
       </c>
@@ -27913,12 +27911,12 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="22" spans="3:10" ht="18.75">
+    <row r="22" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C22" s="72" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="3:10">
+    <row r="23" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C23" s="93" t="s">
         <v>75</v>
       </c>
@@ -27936,7 +27934,7 @@
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
     </row>
-    <row r="24" spans="3:10">
+    <row r="24" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C24" s="96" t="s">
         <v>2</v>
       </c>
@@ -27954,7 +27952,7 @@
       </c>
       <c r="G24" s="101"/>
     </row>
-    <row r="25" spans="3:10">
+    <row r="25" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C25" s="96" t="s">
         <v>3</v>
       </c>
@@ -27972,7 +27970,7 @@
       </c>
       <c r="G25" s="101"/>
     </row>
-    <row r="26" spans="3:10">
+    <row r="26" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C26" s="96" t="s">
         <v>4</v>
       </c>
@@ -27990,7 +27988,7 @@
       </c>
       <c r="G26" s="101"/>
     </row>
-    <row r="27" spans="3:10">
+    <row r="27" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C27" s="96" t="s">
         <v>79</v>
       </c>
@@ -28008,7 +28006,7 @@
       </c>
       <c r="G27" s="101"/>
     </row>
-    <row r="28" spans="3:10">
+    <row r="28" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C28" s="96" t="s">
         <v>80</v>
       </c>
@@ -28026,7 +28024,7 @@
       </c>
       <c r="G28" s="101"/>
     </row>
-    <row r="29" spans="3:10">
+    <row r="29" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C29" s="96" t="s">
         <v>81</v>
       </c>
@@ -28044,7 +28042,7 @@
       </c>
       <c r="G29" s="101"/>
     </row>
-    <row r="30" spans="3:10">
+    <row r="30" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C30" s="98" t="s">
         <v>82</v>
       </c>
@@ -28062,7 +28060,7 @@
       </c>
       <c r="G30" s="101"/>
     </row>
-    <row r="31" spans="3:10">
+    <row r="31" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C31" s="82" t="s">
         <v>88</v>
       </c>
@@ -28083,42 +28081,42 @@
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
     </row>
-    <row r="35" spans="2:66" ht="23.25">
+    <row r="35" spans="2:66" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="73" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="2:66" ht="23.25">
+    <row r="36" spans="2:66" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="73"/>
     </row>
-    <row r="37" spans="2:66" ht="23.25">
+    <row r="37" spans="2:66" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="73"/>
     </row>
-    <row r="38" spans="2:66" ht="23.25">
+    <row r="38" spans="2:66" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="73"/>
     </row>
-    <row r="39" spans="2:66" ht="23.25">
+    <row r="39" spans="2:66" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="73"/>
     </row>
-    <row r="40" spans="2:66" ht="23.25">
+    <row r="40" spans="2:66" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="73"/>
     </row>
-    <row r="41" spans="2:66" ht="23.25">
+    <row r="41" spans="2:66" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="73"/>
     </row>
-    <row r="42" spans="2:66" ht="23.25">
+    <row r="42" spans="2:66" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="73"/>
     </row>
-    <row r="43" spans="2:66" ht="23.25">
+    <row r="43" spans="2:66" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="73"/>
     </row>
-    <row r="44" spans="2:66" ht="23.25">
+    <row r="44" spans="2:66" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="73"/>
     </row>
-    <row r="45" spans="2:66" ht="23.25">
+    <row r="45" spans="2:66" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="73"/>
     </row>
-    <row r="47" spans="2:66" ht="14.45" customHeight="1">
+    <row r="47" spans="2:66" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D47" s="142" t="s">
         <v>90</v>
       </c>
@@ -28199,7 +28197,7 @@
       <c r="BM47" s="140"/>
       <c r="BN47" s="141"/>
     </row>
-    <row r="48" spans="2:66">
+    <row r="48" spans="2:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C48" s="20" t="s">
         <v>10</v>
       </c>
@@ -28393,7 +28391,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="3:66">
+    <row r="49" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C49" s="18" cm="1">
         <f t="array" ref="C49:C53">_xlfn.UNIQUE(AdopcionIA!$C$8:$C$494)</f>
         <v>0</v>
@@ -28651,7 +28649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:66">
+    <row r="50" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C50" s="18" t="str">
         <v>Sprint 21</v>
       </c>
@@ -28908,7 +28906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:66">
+    <row r="51" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C51" s="18" t="str">
         <v>Srpint 22</v>
       </c>
@@ -29165,7 +29163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:66">
+    <row r="52" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C52" s="18" t="str">
         <v>Sprint 23</v>
       </c>
@@ -29422,7 +29420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:66">
+    <row r="53" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C53" s="18" t="str">
         <v>Sprint 24</v>
       </c>
@@ -29679,7 +29677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:66">
+    <row r="54" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C54" s="18"/>
       <c r="D54" s="51">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C54,AdopcionIA!J$8:J$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C54,AdopcionIA!O$8:O$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C54,AdopcionIA!T$8:T$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C54,AdopcionIA!Y$8:Y$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C54,AdopcionIA!AD$8:AD$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C54,AdopcionIA!AI$8:AI$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C54,AdopcionIA!AN$8:AN$494)</f>
@@ -29934,7 +29932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:66" ht="15" customHeight="1">
+    <row r="55" spans="3:66" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C55" s="18"/>
       <c r="D55" s="51">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C55,AdopcionIA!J$8:J$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C55,AdopcionIA!O$8:O$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C55,AdopcionIA!T$8:T$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C55,AdopcionIA!Y$8:Y$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C55,AdopcionIA!AD$8:AD$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C55,AdopcionIA!AI$8:AI$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C55,AdopcionIA!AN$8:AN$494)</f>
@@ -30189,7 +30187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:66" ht="15" customHeight="1">
+    <row r="56" spans="3:66" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C56" s="18"/>
       <c r="D56" s="51">
         <f>SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C56,AdopcionIA!J$8:J$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C56,AdopcionIA!O$8:O$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C56,AdopcionIA!T$8:T$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C56,AdopcionIA!Y$8:Y$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C56,AdopcionIA!AD$8:AD$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C56,AdopcionIA!AI$8:AI$494) + SUMIF(AdopcionIA!$C$8:$C$494,Reporte!$C56,AdopcionIA!AN$8:AN$494)</f>
@@ -30444,10 +30442,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:66">
+    <row r="57" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C57" s="17"/>
     </row>
-    <row r="58" spans="3:66">
+    <row r="58" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C58" s="31"/>
       <c r="D58" s="31"/>
       <c r="E58" s="31"/>
@@ -30457,36 +30455,36 @@
       <c r="I58" s="31"/>
       <c r="J58" s="31"/>
     </row>
-    <row r="59" spans="3:66">
+    <row r="59" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C59" s="17"/>
       <c r="F59" s="43"/>
       <c r="G59" s="43"/>
     </row>
-    <row r="60" spans="3:66">
+    <row r="60" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C60" s="17"/>
       <c r="F60" s="43"/>
       <c r="G60" s="43"/>
     </row>
-    <row r="61" spans="3:66">
+    <row r="61" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C61" s="17"/>
       <c r="F61" s="43"/>
       <c r="G61" s="43"/>
     </row>
-    <row r="62" spans="3:66">
+    <row r="62" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C62" s="17"/>
       <c r="F62" s="43"/>
       <c r="G62" s="43"/>
     </row>
-    <row r="63" spans="3:66">
+    <row r="63" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C63" s="17"/>
     </row>
-    <row r="64" spans="3:66">
+    <row r="64" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C64" s="17"/>
     </row>
-    <row r="66" spans="3:10">
+    <row r="66" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C66" s="17"/>
     </row>
-    <row r="67" spans="3:10">
+    <row r="67" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C67" s="31"/>
       <c r="D67" s="31"/>
       <c r="E67" s="31"/>
@@ -30496,32 +30494,32 @@
       <c r="I67" s="31"/>
       <c r="J67" s="31"/>
     </row>
-    <row r="68" spans="3:10">
+    <row r="68" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C68" s="17"/>
       <c r="F68" s="43"/>
       <c r="G68" s="43"/>
     </row>
-    <row r="69" spans="3:10">
+    <row r="69" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C69" s="17"/>
       <c r="F69" s="43"/>
       <c r="G69" s="43"/>
     </row>
-    <row r="70" spans="3:10">
+    <row r="70" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C70" s="17"/>
       <c r="F70" s="43"/>
       <c r="G70" s="43"/>
     </row>
-    <row r="71" spans="3:10">
+    <row r="71" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C71" s="17"/>
       <c r="F71" s="43"/>
       <c r="G71" s="43"/>
     </row>
-    <row r="72" spans="3:10">
+    <row r="72" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C72" s="17"/>
       <c r="F72" s="43"/>
       <c r="G72" s="43"/>
     </row>
-    <row r="73" spans="3:10">
+    <row r="73" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C73" s="17"/>
     </row>
   </sheetData>
@@ -30906,13 +30904,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="141" style="124" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="125" t="s">
         <v>104</v>
       </c>
@@ -30920,19 +30918,19 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="126"/>
       <c r="B3" s="127"/>
     </row>
-    <row r="4" spans="1:2" ht="180" customHeight="1">
+    <row r="4" spans="1:2" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="126"/>
       <c r="B4" s="127"/>
     </row>
-    <row r="5" spans="1:2" ht="126.75" customHeight="1">
+    <row r="5" spans="1:2" ht="126.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="126"/>
       <c r="B5" s="127"/>
     </row>
-    <row r="6" spans="1:2" ht="98.25" customHeight="1">
+    <row r="6" spans="1:2" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="126"/>
       <c r="B6" s="127"/>
     </row>
@@ -30956,15 +30954,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E080B9D539EE5249B0F7896E1534F47F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1a88378f58b9ad7590fd740332c19a90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c298b4c-1b69-4120-abb9-a44ffc4bda23" xmlns:ns3="c3e1b4bb-9124-477c-aa49-683b9a26b58f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910b3ddf48a2c6cdf16d80fb4d738ee7" ns2:_="" ns3:_="">
     <xsd:import namespace="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
@@ -31165,14 +31154,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E6DC64-1FC7-4277-BA78-A590B013CF93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E6DC64-1FC7-4277-BA78-A590B013CF93}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>